--- a/medicine/Mort/Cimetière_du_choléra_de_Servigny-lès-Raville/Cimetière_du_choléra_de_Servigny-lès-Raville.xlsx
+++ b/medicine/Mort/Cimetière_du_choléra_de_Servigny-lès-Raville/Cimetière_du_choléra_de_Servigny-lès-Raville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_Servigny-l%C3%A8s-Raville</t>
+          <t>Cimetière_du_choléra_de_Servigny-lès-Raville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du choléra de Servigny-lès-Raville est un cimetière du choléra situé à Servigny-lès-Raville, en Moselle. Restauré en 1990, il abrite des victimes d'une épidémie de choléra de 1866[1],[2],[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du choléra de Servigny-lès-Raville est un cimetière du choléra situé à Servigny-lès-Raville, en Moselle. Restauré en 1990, il abrite des victimes d'une épidémie de choléra de 1866
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_Servigny-l%C3%A8s-Raville</t>
+          <t>Cimetière_du_choléra_de_Servigny-lès-Raville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épidémie de choléra débuta à Metz en avril 1832, revint en 1848 puis en 1866[4]. Elle atteignit ensuite la campagne : 60 communes furent atteintes, 5044 cas furent signalés et 1817 décès furent à déplorer[1]. À Servigny-lès-Raville, on déplora un peu plus de 70 décès qu'on enterra sur l'emplacement de l'ancienne église[5]
-Un médecin de 33 ans né à Marseille (où il fut aussi poète), Frédéric Estre, s’installa à Rémilly avec son épouse originaire de Guinglange. Il fut le seul médecin à braver l'épidémie, allant jusqu'à travailler bénévolement[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épidémie de choléra débuta à Metz en avril 1832, revint en 1848 puis en 1866. Elle atteignit ensuite la campagne : 60 communes furent atteintes, 5044 cas furent signalés et 1817 décès furent à déplorer. À Servigny-lès-Raville, on déplora un peu plus de 70 décès qu'on enterra sur l'emplacement de l'ancienne église
+Un médecin de 33 ans né à Marseille (où il fut aussi poète), Frédéric Estre, s’installa à Rémilly avec son épouse originaire de Guinglange. Il fut le seul médecin à braver l'épidémie, allant jusqu'à travailler bénévolement.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_Servigny-l%C3%A8s-Raville</t>
+          <t>Cimetière_du_choléra_de_Servigny-lès-Raville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Le cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tombes peuvent comporter des inscriptions personnelles[6]. Elles sont en pierre grise de Servigny (très dure), jaune (moins dure) ou blanche[1].
-On y trouve des marronniers[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tombes peuvent comporter des inscriptions personnelles. Elles sont en pierre grise de Servigny (très dure), jaune (moins dure) ou blanche.
+On y trouve des marronniers.
 Un grand calvaire s"élève à proximité du village
-Il abrite une géocache[7]
+Il abrite une géocache
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_Servigny-l%C3%A8s-Raville</t>
+          <t>Cimetière_du_choléra_de_Servigny-lès-Raville</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Les célébrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une messe annuelle en plein air y est célébrée le deuxième dimanche après la pentecôte[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une messe annuelle en plein air y est célébrée le deuxième dimanche après la pentecôte.
 </t>
         </is>
       </c>
